--- a/ExcelExample/ExcelExample/Features/MultiplyTwoNumbers.part.examples.xlsx
+++ b/ExcelExample/ExcelExample/Features/MultiplyTwoNumbers.part.examples.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,19 +21,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>FactorOne</t>
+    <t>Result</t>
   </si>
   <si>
-    <t>FactorTwo</t>
+    <t>Number1</t>
   </si>
   <si>
-    <t>Result</t>
+    <t>Number2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +348,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,13 +358,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -387,7 +387,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C5" si="0">A3*B3</f>
+        <f t="shared" ref="C3" si="0">A3*B3</f>
         <v>2</v>
       </c>
     </row>
